--- a/Misc/Gantt Chart.xlsx
+++ b/Misc/Gantt Chart.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Documents\GitHub\Project\Misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tom\Documents\Individual Project\Project\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
   <si>
     <t>Tasks</t>
   </si>
@@ -56,42 +56,12 @@
     <t>Final Report Writing</t>
   </si>
   <si>
-    <t>Exams</t>
-  </si>
-  <si>
     <t>Existing Implementations</t>
   </si>
   <si>
-    <t>Data Acquisition and Persistence</t>
-  </si>
-  <si>
     <t>Semantic Analysis API's</t>
   </si>
   <si>
-    <t>Research Sorting Algorithms</t>
-  </si>
-  <si>
-    <t>Research Scoring Algorithms</t>
-  </si>
-  <si>
-    <t>Weighted Scoring Rule</t>
-  </si>
-  <si>
-    <t>Time-based relevance Rule</t>
-  </si>
-  <si>
-    <t>Ranking Agent API Development</t>
-  </si>
-  <si>
-    <t>Demonstration App Development</t>
-  </si>
-  <si>
-    <t>Compare with Manual Ranking</t>
-  </si>
-  <si>
-    <t>Find Match Statistics</t>
-  </si>
-  <si>
     <t>Write up project brief</t>
   </si>
   <si>
@@ -107,19 +77,49 @@
     <t>Write up algorithm design</t>
   </si>
   <si>
-    <t>Write up design and implementation</t>
-  </si>
-  <si>
-    <t>Write up analysis and evaluation</t>
-  </si>
-  <si>
     <t>Algorithm Design</t>
   </si>
   <si>
     <t xml:space="preserve">Update literature review </t>
   </si>
   <si>
-    <t>NA</t>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Exams/Holiday</t>
+  </si>
+  <si>
+    <t>Write up design and impl.</t>
+  </si>
+  <si>
+    <t>Write up analysis and eval.</t>
+  </si>
+  <si>
+    <t>Demonstration App dev.</t>
+  </si>
+  <si>
+    <t>Ranking Agent API dev.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Acquisition </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare with manual </t>
+  </si>
+  <si>
+    <t>Find match statistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research scoring </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research sorting </t>
+  </si>
+  <si>
+    <t>Time-relevance term</t>
+  </si>
+  <si>
+    <t>Weighted Scoring rule</t>
   </si>
 </sst>
 </file>
@@ -127,9 +127,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="d/m/yy;@"/>
+    <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,8 +166,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,6 +234,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,32 +288,26 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -292,9 +316,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -581,553 +627,895 @@
   <dimension ref="A1:AS27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AS8" sqref="AS8"/>
+      <selection activeCell="AZ14" sqref="AZ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" customWidth="1"/>
-    <col min="5" max="5" width="6" style="22" customWidth="1"/>
-    <col min="6" max="45" width="3.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" style="9" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="4" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" style="31" customWidth="1"/>
+    <col min="6" max="41" width="2.7109375" customWidth="1"/>
+    <col min="42" max="45" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="19" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:45" s="13" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18">
+      <c r="F1" s="12">
         <v>41547</v>
       </c>
-      <c r="G1" s="18">
+      <c r="G1" s="12">
         <v>41554</v>
       </c>
-      <c r="H1" s="18">
+      <c r="H1" s="12">
         <v>41561</v>
       </c>
-      <c r="I1" s="18">
+      <c r="I1" s="12">
         <v>41568</v>
       </c>
-      <c r="J1" s="18">
+      <c r="J1" s="12">
         <v>41575</v>
       </c>
-      <c r="K1" s="18">
+      <c r="K1" s="12">
         <v>41582</v>
       </c>
-      <c r="L1" s="18">
+      <c r="L1" s="12">
         <v>41589</v>
       </c>
-      <c r="M1" s="18">
+      <c r="M1" s="12">
         <v>41596</v>
       </c>
-      <c r="N1" s="18">
+      <c r="N1" s="12">
         <v>41603</v>
       </c>
-      <c r="O1" s="18">
+      <c r="O1" s="12">
         <v>41610</v>
       </c>
-      <c r="P1" s="18">
+      <c r="P1" s="12">
         <v>41617</v>
       </c>
-      <c r="Q1" s="18">
+      <c r="Q1" s="12">
         <v>41624</v>
       </c>
-      <c r="R1" s="18">
+      <c r="R1" s="12">
         <v>41631</v>
       </c>
-      <c r="S1" s="18">
+      <c r="S1" s="12">
         <v>41638</v>
       </c>
-      <c r="T1" s="18">
+      <c r="T1" s="12">
         <v>41645</v>
       </c>
-      <c r="U1" s="18">
+      <c r="U1" s="12">
         <v>41652</v>
       </c>
-      <c r="V1" s="18">
+      <c r="V1" s="12">
         <v>41659</v>
       </c>
-      <c r="W1" s="18">
+      <c r="W1" s="12">
         <v>41666</v>
       </c>
-      <c r="X1" s="18">
+      <c r="X1" s="12">
         <v>41673</v>
       </c>
-      <c r="Y1" s="18">
+      <c r="Y1" s="12">
         <v>41680</v>
       </c>
-      <c r="Z1" s="18">
+      <c r="Z1" s="12">
         <v>41687</v>
       </c>
-      <c r="AA1" s="18">
+      <c r="AA1" s="12">
         <v>41694</v>
       </c>
-      <c r="AB1" s="18">
+      <c r="AB1" s="12">
         <v>41701</v>
       </c>
-      <c r="AC1" s="18">
+      <c r="AC1" s="12">
         <v>41708</v>
       </c>
-      <c r="AD1" s="18">
+      <c r="AD1" s="12">
         <v>41715</v>
       </c>
-      <c r="AE1" s="18">
+      <c r="AE1" s="12">
         <v>41722</v>
       </c>
-      <c r="AF1" s="18">
+      <c r="AF1" s="12">
         <v>41729</v>
       </c>
-      <c r="AG1" s="18">
+      <c r="AG1" s="12">
         <v>41736</v>
       </c>
-      <c r="AH1" s="18">
+      <c r="AH1" s="12">
         <v>41743</v>
       </c>
-      <c r="AI1" s="18">
+      <c r="AI1" s="12">
         <v>41750</v>
       </c>
-      <c r="AJ1" s="18">
+      <c r="AJ1" s="12">
         <v>41757</v>
       </c>
-      <c r="AK1" s="18">
+      <c r="AK1" s="12">
         <v>41764</v>
       </c>
-      <c r="AL1" s="18">
+      <c r="AL1" s="12">
         <v>41771</v>
       </c>
-      <c r="AM1" s="18">
+      <c r="AM1" s="12">
         <v>41778</v>
       </c>
-      <c r="AN1" s="18">
+      <c r="AN1" s="12">
         <v>41785</v>
       </c>
-      <c r="AO1" s="18">
+      <c r="AO1" s="12">
         <v>41792</v>
       </c>
-      <c r="AP1" s="18"/>
-      <c r="AQ1" s="18"/>
-      <c r="AR1" s="18"/>
-      <c r="AS1" s="18"/>
-    </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="AP1" s="12"/>
+      <c r="AQ1" s="12"/>
+      <c r="AR1" s="12"/>
+      <c r="AS1" s="12"/>
+    </row>
+    <row r="2" spans="1:45" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="20">
         <v>41547</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
+      <c r="C2" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="21">
+        <v>84</v>
+      </c>
+      <c r="E2" s="30">
+        <v>0.7</v>
+      </c>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="9">
+        <v>41547</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3" s="31">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="R3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="9">
+        <v>41547</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>14</v>
+      </c>
+      <c r="E4" s="31">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="R4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B5" s="9">
         <v>41547</v>
       </c>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="C5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>14</v>
+      </c>
+      <c r="E5" s="31">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="R5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="9">
+        <v>41547</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>70</v>
+      </c>
+      <c r="E6" s="31">
+        <v>0.75</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="R6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="9">
+        <v>41596</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>28</v>
+      </c>
+      <c r="E7" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="9">
+        <v>41561</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>63</v>
+      </c>
+      <c r="E8" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="32"/>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="9">
+        <v>41561</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>42</v>
+      </c>
+      <c r="E9" s="31">
+        <v>0.85</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="34"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="32"/>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="9">
+        <v>41597</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>28</v>
+      </c>
+      <c r="E10" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="32"/>
+    </row>
+    <row r="11" spans="1:45" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="20">
+        <v>41579</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="21">
+        <v>126</v>
+      </c>
+      <c r="E11" s="30">
+        <v>0.4</v>
+      </c>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="26"/>
+      <c r="AE11" s="26"/>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="9">
+        <v>41579</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>70</v>
+      </c>
+      <c r="E12" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13">
+        <v>63</v>
+      </c>
+      <c r="E13" s="31">
+        <v>0</v>
+      </c>
+      <c r="R13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="18"/>
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="18"/>
+      <c r="AE13" s="18"/>
+    </row>
+    <row r="14" spans="1:45" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="21">
+        <v>84</v>
+      </c>
+      <c r="E14" s="30">
+        <v>0</v>
+      </c>
+      <c r="R14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="26"/>
+      <c r="AF14" s="26"/>
+      <c r="AG14" s="26"/>
+      <c r="AH14" s="26"/>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <v>42</v>
+      </c>
+      <c r="E15" s="31">
+        <v>0</v>
+      </c>
+      <c r="R15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="18"/>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>70</v>
+      </c>
+      <c r="E16" s="31">
+        <v>0</v>
+      </c>
+      <c r="R16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="18"/>
+      <c r="AF16" s="18"/>
+      <c r="AG16" s="18"/>
+      <c r="AH16" s="18"/>
+    </row>
+    <row r="17" spans="1:42" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="21">
+        <v>77</v>
+      </c>
+      <c r="E17" s="30">
+        <v>1</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="R17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="33"/>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="15">
-        <v>41547</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="B18" s="9">
+        <v>41550</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18">
+        <v>14</v>
+      </c>
+      <c r="E18" s="31">
+        <v>1</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="R18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="15">
-        <v>41547</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="B19" s="9">
+        <v>41550</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <v>63</v>
+      </c>
+      <c r="E19" s="31">
+        <v>1</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="R19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="9">
+        <v>41603</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>21</v>
+      </c>
+      <c r="E20" s="31">
+        <v>1</v>
+      </c>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="R20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+    </row>
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="15">
-        <v>41547</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="B21" s="9">
+        <v>41604</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21" s="31">
+        <v>1</v>
+      </c>
+      <c r="P21" s="7"/>
+      <c r="R21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+    </row>
+    <row r="22" spans="1:42" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="21">
+        <v>112</v>
+      </c>
+      <c r="E22" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="26"/>
+      <c r="AC22" s="26"/>
+      <c r="AD22" s="26"/>
+      <c r="AE22" s="26"/>
+      <c r="AF22" s="26"/>
+      <c r="AG22" s="26"/>
+      <c r="AH22" s="26"/>
+      <c r="AI22" s="26"/>
+      <c r="AJ22" s="26"/>
+      <c r="AK22" s="27"/>
+      <c r="AL22" s="27"/>
+      <c r="AM22" s="27"/>
+      <c r="AN22" s="27"/>
+      <c r="AO22" s="27"/>
+      <c r="AP22" s="27"/>
+    </row>
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23">
         <v>14</v>
       </c>
-      <c r="B7" s="15">
-        <v>41596</v>
-      </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="3"/>
-    </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="15">
-        <v>41561</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="8"/>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="E23" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+    </row>
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="15">
-        <v>41561</v>
-      </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-    </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="15">
-        <v>41597</v>
-      </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-    </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="15">
-        <v>41579</v>
-      </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="6"/>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="15">
-        <v>41579</v>
-      </c>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="B24" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24">
+        <v>14</v>
+      </c>
+      <c r="E24" s="31">
+        <v>0</v>
+      </c>
+      <c r="R24" s="32"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+    </row>
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25">
+        <v>49</v>
+      </c>
+      <c r="E25" s="31">
+        <v>0</v>
+      </c>
+      <c r="R25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="32"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+    </row>
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26">
+        <v>42</v>
+      </c>
+      <c r="E26" s="31">
+        <v>0</v>
+      </c>
+      <c r="R26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1"/>
+    </row>
+    <row r="27" spans="1:42" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="B27" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="21">
         <v>21</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="15">
-        <v>41550</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-    </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="15">
-        <v>41550</v>
-      </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-    </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-    </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="P21" s="12"/>
-    </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="6"/>
-      <c r="AE22" s="6"/>
-      <c r="AF22" s="6"/>
-      <c r="AG22" s="6"/>
-      <c r="AH22" s="6"/>
-      <c r="AI22" s="6"/>
-      <c r="AJ22" s="6"/>
-      <c r="AK22" s="8"/>
-      <c r="AL22" s="8"/>
-      <c r="AM22" s="8"/>
-      <c r="AN22" s="8"/>
-      <c r="AO22" s="8"/>
-      <c r="AP22" s="8"/>
-    </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-    </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-    </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="3"/>
-      <c r="AD25" s="3"/>
-      <c r="AE25" s="3"/>
-    </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE26" s="3"/>
-      <c r="AF26" s="3"/>
-      <c r="AG26" s="3"/>
-      <c r="AH26" s="3"/>
-      <c r="AI26" s="3"/>
-      <c r="AJ26" s="3"/>
-    </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
+      <c r="E27" s="30">
+        <v>0</v>
+      </c>
+      <c r="R27" s="28"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Misc/Gantt Chart.xlsx
+++ b/Misc/Gantt Chart.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -627,7 +627,7 @@
   <dimension ref="A1:AS27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AZ14" sqref="AZ14"/>
+      <selection activeCell="AV23" sqref="AV23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,11 +1385,11 @@
       <c r="AH22" s="26"/>
       <c r="AI22" s="26"/>
       <c r="AJ22" s="26"/>
-      <c r="AK22" s="27"/>
-      <c r="AL22" s="27"/>
-      <c r="AM22" s="27"/>
-      <c r="AN22" s="27"/>
-      <c r="AO22" s="27"/>
+      <c r="AK22" s="26"/>
+      <c r="AL22" s="26"/>
+      <c r="AM22" s="26"/>
+      <c r="AN22" s="26"/>
+      <c r="AO22" s="26"/>
       <c r="AP22" s="27"/>
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.25">
@@ -1465,6 +1465,10 @@
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
+      <c r="AF25" s="18"/>
+      <c r="AG25" s="18"/>
+      <c r="AH25" s="18"/>
+      <c r="AI25" s="18"/>
     </row>
     <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
@@ -1492,6 +1496,11 @@
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
       <c r="AJ26" s="1"/>
+      <c r="AK26" s="18"/>
+      <c r="AL26" s="18"/>
+      <c r="AM26" s="18"/>
+      <c r="AN26" s="18"/>
+      <c r="AO26" s="18"/>
     </row>
     <row r="27" spans="1:42" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
